--- a/Public/excel_template/costCon-template.xlsx
+++ b/Public/excel_template/costCon-template.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="运营相关" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -288,7 +288,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -549,7 +555,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +648,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,9 +672,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,15 +687,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="標準_見積例" xfId="1"/>
@@ -1015,7 +1030,7 @@
       <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1030,7 +1045,7 @@
     <col min="10" max="10" width="13.625" style="34" customWidth="1"/>
     <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="28.125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.375" style="55" customWidth="1"/>
     <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.875" style="1" customWidth="1"/>
@@ -1046,10 +1061,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="J1" s="31"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:17" s="10" customFormat="1" ht="20.25">
       <c r="A2" s="6" t="s">
@@ -1059,12 +1075,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="J2" s="31"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:17" s="10" customFormat="1" ht="20.25">
       <c r="A3" s="6" t="s">
@@ -1074,10 +1091,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="J3" s="31"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:17" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="2" t="s">
@@ -1087,12 +1105,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="J4" s="31"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:17" s="10" customFormat="1" ht="20.25">
       <c r="A5" s="2"/>
@@ -1100,10 +1119,11 @@
         <v>15</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="J5" s="31"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:17" s="10" customFormat="1" ht="20.25">
       <c r="A6" s="2"/>
@@ -1111,13 +1131,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="31"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:17" s="11" customFormat="1" ht="20.25">
       <c r="A7" s="22"/>
@@ -1125,41 +1146,44 @@
         <v>6</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="4"/>
       <c r="J7" s="31"/>
       <c r="K7" s="10"/>
       <c r="L7" s="22"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:17" s="11" customFormat="1" ht="18" thickBot="1">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:17" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="E10" s="24"/>
@@ -1168,24 +1192,25 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="32"/>
-      <c r="N10" s="38" t="s">
+      <c r="M10" s="52"/>
+      <c r="N10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38" t="s">
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="38"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="29" t="s">
         <v>17</v>
       </c>
@@ -1210,6 +1235,7 @@
       <c r="L11" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="M11" s="53"/>
       <c r="N11" s="29" t="s">
         <v>19</v>
       </c>
@@ -1237,12 +1263,13 @@
         <v>14</v>
       </c>
       <c r="L12" s="20"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="37"/>
       <c r="O12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" s="27"/>
@@ -1253,16 +1280,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B8:L8"/>
   </mergeCells>
